--- a/Funzionalità_da_aggiungere.xlsx
+++ b/Funzionalità_da_aggiungere.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Documents\Fundamentals\Università\UNIVR\Applicazioni dinamiche per il web (2020\Progetto_esame\Univr\Progetto-Applicazioni-Dinamiche-per-il-web-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91804C47-6A4C-46F2-9761-5E83BB6387A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C89BB47-DDC9-48FD-A378-C191618C5854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53B9501B-DDFF-468A-A780-1A2838CB7256}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Problemi</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>/ da aggiungere agli url</t>
+  </si>
+  <si>
+    <t>aggiungere logout nella pagina user</t>
+  </si>
+  <si>
+    <t>rigestire completamente i login con la classe e il decoratore</t>
+  </si>
+  <si>
+    <t>riscrivere la view come classe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inserire data nel passato </t>
+  </si>
+  <si>
+    <t xml:space="preserve">creare form file per la gestione dei form </t>
   </si>
 </sst>
 </file>
@@ -457,15 +475,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2B545B-C35D-4173-A02A-D92AA76CD29C}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
     <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -484,7 +503,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O2" t="s">
@@ -492,21 +511,63 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="O5" s="3"/>
       <c r="P5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Funzionalità_da_aggiungere.xlsx
+++ b/Funzionalità_da_aggiungere.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Documents\Fundamentals\Università\UNIVR\Applicazioni dinamiche per il web (2020\Progetto_esame\Univr\Progetto-Applicazioni-Dinamiche-per-il-web-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C89BB47-DDC9-48FD-A378-C191618C5854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1276A497-1285-4A29-B04C-024C008295C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53B9501B-DDFF-468A-A780-1A2838CB7256}"/>
   </bookViews>
